--- a/results/table_synchronous.xlsx
+++ b/results/table_synchronous.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -474,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,947 +483,1067 @@
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unsolved</t>
         </is>
       </c>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>TimeH</t>
         </is>
       </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Gap i</t>
         </is>
       </c>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Num_Drones</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Alpha_e</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Num_Drones</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.78</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="F4" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.65</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>177.69</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n">
-        <v>2</v>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F5" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.67</v>
+        <v>15.41</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>148.95</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.65</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>139.24</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.53</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E7" t="n">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="F7" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.74</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.74</v>
+        <v>33.99</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>163.41</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>61.61</v>
-      </c>
-      <c r="O7" t="n">
-        <v>61.72</v>
-      </c>
-      <c r="P7" t="n">
-        <v>63.36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>62.64</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n">
-        <v>2</v>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="n">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="F8" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.76</v>
+        <v>4.83</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>61.67</v>
-      </c>
-      <c r="O8" t="n">
-        <v>60.65</v>
-      </c>
-      <c r="P8" t="n">
-        <v>59.04</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>61.12</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
-        <v>3</v>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.92</v>
       </c>
       <c r="E9" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F9" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.74</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.72</v>
+        <v>14.08</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>125.89</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>57.08</v>
-      </c>
-      <c r="O9" t="n">
-        <v>59.82</v>
-      </c>
-      <c r="P9" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="E10" t="n">
         <v>0.82</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="I10" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.82</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="O10" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="P10" t="n">
-        <v>40.82</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="R10" t="n">
-        <v>27.17</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n">
-        <v>2</v>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="E11" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9399999999999999</v>
+        <v>14.16</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>122.23</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="O11" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="P11" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="R11" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n">
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9</v>
-      </c>
       <c r="H12" t="n">
-        <v>0.89</v>
+        <v>4.98</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>174.64</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.82</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="P12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F13" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8100000000000001</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.85</v>
+        <v>14.73</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>133.75</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0.84</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>42.68</v>
-      </c>
-      <c r="O13" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="P13" t="n">
-        <v>44.78</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>35.31</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n">
-        <v>2</v>
+      <c r="B14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="E14" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F14" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.92</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.63</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>105.54</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="O14" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="P14" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="R14" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="U14" t="n">
         <v>0.95</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n">
-        <v>3</v>
+      <c r="C15" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="I15" t="n">
+        <v>127.78</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I16" t="n">
+        <v>93.20999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="I17" t="n">
+        <v>160.24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="I18" t="n">
+        <v>131.26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="I19" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="I20" t="n">
+        <v>115.48</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.93</v>
       </c>
-      <c r="G15" t="n">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="I21" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="I22" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="I23" t="n">
+        <v>118.67</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.9</v>
       </c>
-      <c r="H15" t="n">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="I24" t="n">
+        <v>206.87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="I25" t="n">
+        <v>168.57</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="I27" t="n">
+        <v>90.14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="I28" t="n">
+        <v>83.02</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="I29" t="n">
+        <v>145.06</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="I31" t="n">
+        <v>108.17</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.91</v>
       </c>
-      <c r="I15" t="n">
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="P15" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="R15" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="H33" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="I33" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
+  <mergeCells count="24">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1663,13 +1776,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9649776-0F5A-49FF-8F89-B9847A4E9B87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91812DE1-C7A5-40C0-B6C0-91EC97AE9BA6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F254BA-637A-4127-A153-E0DA2F7B7D6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{311ABF34-3661-42D1-B0E5-083D7EBE8F30}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FC75CFE-6A0D-47B9-BC60-84BBAC01F555}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F58D6E-08FF-4CDB-A897-B060E471294D}"/>
 </file>